--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-11.79493114439497</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.24123085927712</v>
+        <v>-9.104638863729393</v>
       </c>
       <c r="F2" t="n">
-        <v>5.088530262443212</v>
+        <v>5.507693430223914</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.67372799917113</v>
+        <v>-15.80560676569584</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.46223186335721</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.624246178911816</v>
+        <v>-9.443349830547687</v>
       </c>
       <c r="F3" t="n">
-        <v>4.969940183302858</v>
+        <v>5.400860239035429</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.19868688286194</v>
+        <v>-15.33603823197449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.05520810356259</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.712566853882102</v>
+        <v>-9.5139828043788</v>
       </c>
       <c r="F4" t="n">
-        <v>5.154751130216662</v>
+        <v>5.559669872505566</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.48857346902956</v>
+        <v>-14.58979006229895</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.61570975970067</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.63169888258264</v>
+        <v>-10.44982061150538</v>
       </c>
       <c r="F5" t="n">
-        <v>5.204292404169754</v>
+        <v>5.626178770941535</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.66722785025388</v>
+        <v>-13.69070234924909</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.15459940993373</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.21841734213175</v>
+        <v>-11.03606774815219</v>
       </c>
       <c r="F6" t="n">
-        <v>5.434769303395499</v>
+        <v>5.850607026254403</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.90902640808384</v>
+        <v>-12.91935623502596</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.677595831523593</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.95726836070172</v>
+        <v>-11.81911838111582</v>
       </c>
       <c r="F7" t="n">
-        <v>5.727225164273976</v>
+        <v>6.157438235653095</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.72300778595471</v>
+        <v>-11.66756188342</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.196171532635798</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.74304219265643</v>
+        <v>-12.61404373275691</v>
       </c>
       <c r="F8" t="n">
-        <v>5.956366648609866</v>
+        <v>6.406925158605027</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.06815698241726</v>
+        <v>-10.97586933968593</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.717587262737277</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.44852093128284</v>
+        <v>-13.31776810280252</v>
       </c>
       <c r="F9" t="n">
-        <v>6.025336899980079</v>
+        <v>6.474690918113801</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.02124407798148</v>
+        <v>-9.844642004949433</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.232822335413008</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.44950603734985</v>
+        <v>-14.34208369253349</v>
       </c>
       <c r="F10" t="n">
-        <v>6.205722648533381</v>
+        <v>6.644340978336888</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.451427781401033</v>
+        <v>-9.248628010382696</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.753849801473845</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.36736811267474</v>
+        <v>-15.25736658419856</v>
       </c>
       <c r="F11" t="n">
-        <v>6.42370949084812</v>
+        <v>6.864370219894936</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.760167283660738</v>
+        <v>-8.504003286259525</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.282409156077132</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.5178804094971</v>
+        <v>-16.46168824570042</v>
       </c>
       <c r="F12" t="n">
-        <v>6.387915134878841</v>
+        <v>6.813912484742923</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.35770989430608</v>
+        <v>-8.081802704219543</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.812041095290694</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37079157042419</v>
+        <v>-17.37142000096059</v>
       </c>
       <c r="F13" t="n">
-        <v>6.223056857495826</v>
+        <v>6.675893428185447</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.996637274234115</v>
+        <v>-7.75774202428114</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.355532246426894</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.65268512626327</v>
+        <v>-18.69366403415787</v>
       </c>
       <c r="F14" t="n">
-        <v>6.32321297423503</v>
+        <v>6.73014793116156</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.142168129268864</v>
+        <v>-6.867976030854595</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.910396534883317</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.68764475820456</v>
+        <v>-19.75013431966812</v>
       </c>
       <c r="F15" t="n">
-        <v>6.267780164003162</v>
+        <v>6.687074254812281</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.656875739834604</v>
+        <v>-6.396338913284255</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.469420707654057</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.63203183908679</v>
+        <v>-20.71058565613714</v>
       </c>
       <c r="F16" t="n">
-        <v>6.217793751753452</v>
+        <v>6.607813453408472</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.083982752086354</v>
+        <v>-5.802877917771654</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.037938250956756</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.61840593518243</v>
+        <v>-21.73674726056879</v>
       </c>
       <c r="F17" t="n">
-        <v>6.512370565692289</v>
+        <v>6.909355372459107</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.047376673340888</v>
+        <v>-5.821180957144387</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.607942265362833</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.43948970790128</v>
+        <v>-22.57538781139839</v>
       </c>
       <c r="F18" t="n">
-        <v>6.83724296840688</v>
+        <v>7.262245303254991</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.542956429454867</v>
+        <v>-5.302751949217718</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.172409236984024</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.05774752499611</v>
+        <v>-23.19157704464423</v>
       </c>
       <c r="F19" t="n">
-        <v>7.142843501338449</v>
+        <v>7.57208774230728</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.687138777296917</v>
+        <v>-4.435059578382323</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.735814888027138</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.948312148896</v>
+        <v>-24.0801254539065</v>
       </c>
       <c r="F20" t="n">
-        <v>7.341218073996282</v>
+        <v>7.775542128467703</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.125596816112444</v>
+        <v>-3.930665519101984</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.297551741559559</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.2177779259844</v>
+        <v>-24.2864601466921</v>
       </c>
       <c r="F21" t="n">
-        <v>7.219119257694345</v>
+        <v>7.645195161375478</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.042316677736224</v>
+        <v>-3.863161605650045</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.864789156695188</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.90424664088463</v>
+        <v>-24.96724680215901</v>
       </c>
       <c r="F22" t="n">
-        <v>7.599791055120373</v>
+        <v>8.032072710348483</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.312908392869018</v>
+        <v>-4.191267807166541</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.453148764573036</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.10009439909401</v>
+        <v>-25.14044487645221</v>
       </c>
       <c r="F23" t="n">
-        <v>7.315269129763982</v>
+        <v>7.709268891482886</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.177389966154312</v>
+        <v>-4.064076085059173</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.073348160368857</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.50142585040428</v>
+        <v>-25.54329503489212</v>
       </c>
       <c r="F24" t="n">
-        <v>7.293038399538731</v>
+        <v>7.679208964158283</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.993992987947413</v>
+        <v>-3.90734812774087</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.740784786568043</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.63418180121938</v>
+        <v>-25.62988752588729</v>
       </c>
       <c r="F25" t="n">
-        <v>7.405553650160525</v>
+        <v>7.790100769227703</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.910293895880259</v>
+        <v>-3.807244380213033</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.471470138989372</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.96281169484955</v>
+        <v>-25.95922440387091</v>
       </c>
       <c r="F26" t="n">
-        <v>7.320244204843838</v>
+        <v>7.696516988515045</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.708096370792641</v>
+        <v>-3.611802483391746</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.271374179022339</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.87302468196099</v>
+        <v>-25.89494119691804</v>
       </c>
       <c r="F27" t="n">
-        <v>7.284528402691609</v>
+        <v>7.644880946107278</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.768923209795301</v>
+        <v>-3.701013434955267</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.146173005338015</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.84286001621365</v>
+        <v>-25.8559915959639</v>
       </c>
       <c r="F28" t="n">
-        <v>7.110584067136436</v>
+        <v>7.493979063553542</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.954323310336983</v>
+        <v>-3.910045142126266</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.098749306264631</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.82716234510642</v>
+        <v>-25.78761049822157</v>
       </c>
       <c r="F29" t="n">
-        <v>7.06274479255277</v>
+        <v>7.44648018884376</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.734176238053359</v>
+        <v>-3.694388729717354</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.123317528230522</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.67756969283686</v>
+        <v>-25.64366062847679</v>
       </c>
       <c r="F30" t="n">
-        <v>7.159444541341758</v>
+        <v>7.548155012712605</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.909482173104072</v>
+        <v>-3.861891652274397</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.213036674483155</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.32450956210403</v>
+        <v>-25.3017813243708</v>
       </c>
       <c r="F31" t="n">
-        <v>7.007521459166369</v>
+        <v>7.380652090155562</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.235310313926108</v>
+        <v>-4.227310916889814</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.358984447338114</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.92169868057265</v>
+        <v>-24.8877634316069</v>
       </c>
       <c r="F32" t="n">
-        <v>7.094794749909314</v>
+        <v>7.492879310114837</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.214938690704383</v>
+        <v>-4.164494047855212</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.545065181624097</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.74844823706809</v>
+        <v>-24.7280897061492</v>
       </c>
       <c r="F33" t="n">
-        <v>7.061985438987949</v>
+        <v>7.485154851438219</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.354083685306247</v>
+        <v>-4.305563610974811</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.759654733062423</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.32734740846681</v>
+        <v>-24.32082744165163</v>
       </c>
       <c r="F34" t="n">
-        <v>7.165493185254635</v>
+        <v>7.595182564520085</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.397235915472576</v>
+        <v>-4.343622935335708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.992132224124148</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.21251482024203</v>
+        <v>-24.18928907500081</v>
       </c>
       <c r="F35" t="n">
-        <v>7.060100147378741</v>
+        <v>7.493481556045557</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.561923992918649</v>
+        <v>-4.50701487480045</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.229994390229791</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82138227284547</v>
+        <v>-23.819352965905</v>
       </c>
       <c r="F36" t="n">
-        <v>7.188090499959455</v>
+        <v>7.631814827871234</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.550703889383289</v>
+        <v>-4.467541581732645</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.46698979213252</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.28647005564106</v>
+        <v>-23.26347997185099</v>
       </c>
       <c r="F37" t="n">
-        <v>7.164576724055714</v>
+        <v>7.602461884900085</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.665706677545011</v>
+        <v>-4.584495123017784</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.69993258267726</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.75862768197119</v>
+        <v>-22.74624236348292</v>
       </c>
       <c r="F38" t="n">
-        <v>7.076229864479747</v>
+        <v>7.550852027098</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.592285043208611</v>
+        <v>-4.523039853478722</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.923282862268534</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.56101246287818</v>
+        <v>-22.55522566502214</v>
       </c>
       <c r="F39" t="n">
-        <v>7.258972227544559</v>
+        <v>7.726707838868065</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.75042696923382</v>
+        <v>-4.716949950867527</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.14035157998624</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.86562788974274</v>
+        <v>-21.85425067857328</v>
       </c>
       <c r="F40" t="n">
-        <v>7.49410998658196</v>
+        <v>7.980174821883882</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.746145786204576</v>
+        <v>-4.694627574522384</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.35610685579937</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.22523098854255</v>
+        <v>-21.19763241415219</v>
       </c>
       <c r="F41" t="n">
-        <v>7.500394291945988</v>
+        <v>7.97554014667791</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.759486842800295</v>
+        <v>-4.715352689920836</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.569896599898279</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.49792738107898</v>
+        <v>-20.48266175596553</v>
       </c>
       <c r="F42" t="n">
-        <v>7.551742303691238</v>
+        <v>8.002353182897766</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.096430348734957</v>
+        <v>-5.058462670493951</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.790903464343145</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.72989361947481</v>
+        <v>-19.67671268533172</v>
       </c>
       <c r="F43" t="n">
-        <v>7.641922085665047</v>
+        <v>8.106777390363373</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.25073623002754</v>
+        <v>-5.213004213237686</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.025139926905572</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02831638709523</v>
+        <v>-18.97594717572833</v>
       </c>
       <c r="F44" t="n">
-        <v>7.478085007903687</v>
+        <v>7.913980138716115</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.086309998638303</v>
+        <v>-5.027224435913593</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.270802180385959</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.59138696435831</v>
+        <v>-18.53385938567176</v>
       </c>
       <c r="F45" t="n">
-        <v>7.480624914654982</v>
+        <v>7.942495174305394</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.309664685118149</v>
+        <v>-5.246690708449447</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.535686923276048</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86595555620111</v>
+        <v>-17.82912690830733</v>
       </c>
       <c r="F46" t="n">
-        <v>7.6279133216244</v>
+        <v>8.059252331047908</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.446950572716489</v>
+        <v>-5.386948548792859</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.819886701831832</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69469514272849</v>
+        <v>-17.66672998385857</v>
       </c>
       <c r="F47" t="n">
-        <v>7.497749646771959</v>
+        <v>7.918640998527769</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.737940095676692</v>
+        <v>-5.6771656258854</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.116428596337585</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.07803458658035</v>
+        <v>-17.04112738486953</v>
       </c>
       <c r="F48" t="n">
-        <v>7.472298210047644</v>
+        <v>7.881537412274318</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.832021383897336</v>
+        <v>-5.769165237954209</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.427783629494252</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.24651624849665</v>
+        <v>-16.18923742356409</v>
       </c>
       <c r="F49" t="n">
-        <v>7.438991391618293</v>
+        <v>7.826366448099284</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.107666727927037</v>
+        <v>-6.023208282295061</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.747395410589187</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.68392690308483</v>
+        <v>-15.62986878465135</v>
       </c>
       <c r="F50" t="n">
-        <v>7.180601702733988</v>
+        <v>7.572978018900518</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.328363676930013</v>
+        <v>-6.244559846440125</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.065681116696486</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.96175547833523</v>
+        <v>-14.91114063554911</v>
       </c>
       <c r="F51" t="n">
-        <v>7.063347038483489</v>
+        <v>7.426946473003905</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.295855488974007</v>
+        <v>-6.200464970469191</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.383427615556901</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.33449015688529</v>
+        <v>-14.24984841901353</v>
       </c>
       <c r="F52" t="n">
-        <v>6.964604890451191</v>
+        <v>7.311734207996715</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.540838659748386</v>
+        <v>-6.41231152275116</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.692765726569191</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.83050195899304</v>
+        <v>-13.75869067790618</v>
       </c>
       <c r="F53" t="n">
-        <v>6.982567529950039</v>
+        <v>7.345617087751103</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.585077551050578</v>
+        <v>-6.446770463830584</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.987796173510426</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.35076070596367</v>
+        <v>-13.29390083472206</v>
       </c>
       <c r="F54" t="n">
-        <v>6.754682906686955</v>
+        <v>7.124749938811184</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.790993290145245</v>
+        <v>-6.662950568353164</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.271630549613004</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.75621304931521</v>
+        <v>-12.69634194842</v>
       </c>
       <c r="F55" t="n">
-        <v>6.770917362210695</v>
+        <v>7.1136476660014</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.084941673547679</v>
+        <v>-6.975162714219806</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.537756837348704</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.4959380688217</v>
+        <v>-12.42432317227745</v>
       </c>
       <c r="F56" t="n">
-        <v>6.77861563628163</v>
+        <v>7.137711318624492</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.075803246164154</v>
+        <v>-6.948022370428908</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.785924153293238</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.05930976905013</v>
+        <v>-11.97703773799273</v>
       </c>
       <c r="F57" t="n">
-        <v>6.457382893757039</v>
+        <v>6.797913690670335</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.321781431954504</v>
+        <v>-7.195231232686379</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.022390960216645</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.63210792732461</v>
+        <v>-11.55368503330267</v>
       </c>
       <c r="F58" t="n">
-        <v>6.586970507284444</v>
+        <v>6.942819298522559</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.987865431330159</v>
+        <v>-7.903132047338508</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.242098720556935</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.53186016446551</v>
+        <v>-11.49060631821123</v>
       </c>
       <c r="F59" t="n">
-        <v>6.448139727950781</v>
+        <v>6.796944860260046</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.045248994685444</v>
+        <v>-7.931162667722644</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.450967774167312</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.28030465766459</v>
+        <v>-11.24551840901412</v>
       </c>
       <c r="F60" t="n">
-        <v>6.31873540666316</v>
+        <v>6.659789895690125</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.281329399527449</v>
+        <v>-8.172519270609863</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.656590327217303</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.32154541161603</v>
+        <v>-11.29790071268387</v>
       </c>
       <c r="F61" t="n">
-        <v>6.160423280701009</v>
+        <v>6.493124880514952</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.739612368199229</v>
+        <v>-8.640084681996427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.851913003605727</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.32953171634948</v>
+        <v>-11.34113149666725</v>
       </c>
       <c r="F62" t="n">
-        <v>6.116145112490291</v>
+        <v>6.484431591428045</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.939243801929868</v>
+        <v>-8.854039095035914</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.044796390997165</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.97118229526859</v>
+        <v>-10.98994356524079</v>
       </c>
       <c r="F63" t="n">
-        <v>6.387731842639057</v>
+        <v>6.782412404105731</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.968387268055549</v>
+        <v>-8.887424467282315</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.238337249400969</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.79109766968065</v>
+        <v>-10.77636882898371</v>
       </c>
       <c r="F64" t="n">
-        <v>6.244999557058559</v>
+        <v>6.629965629816672</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.151744969353922</v>
+        <v>-9.101077757356443</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.420881593371078</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.85857539852691</v>
+        <v>-10.82373678066508</v>
       </c>
       <c r="F65" t="n">
-        <v>6.208210186073309</v>
+        <v>6.599670041040918</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.221880435677051</v>
+        <v>-9.171252500588094</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.600390838048149</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.58417382326717</v>
+        <v>-10.54344366912656</v>
       </c>
       <c r="F66" t="n">
-        <v>6.075035281567271</v>
+        <v>6.446673390032507</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.560041525775992</v>
+        <v>-9.536252811512576</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.776193018656047</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.82444376501853</v>
+        <v>-10.7840540107518</v>
       </c>
       <c r="F67" t="n">
-        <v>5.820678021958217</v>
+        <v>6.196898436418057</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.603075925216746</v>
+        <v>-9.585833362374192</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.935548989612421</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.91657430011576</v>
+        <v>-10.90712165746403</v>
       </c>
       <c r="F68" t="n">
-        <v>5.788156741699369</v>
+        <v>6.167205093573023</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.441674015783947</v>
+        <v>-9.413289903223085</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.08797887717201</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.70661303944299</v>
+        <v>-10.70281627161889</v>
       </c>
       <c r="F69" t="n">
-        <v>5.823348851737929</v>
+        <v>6.185769979002591</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.487627998758406</v>
+        <v>-9.444161553323875</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.22970590124181</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.9407165065559</v>
+        <v>-10.94933124182575</v>
       </c>
       <c r="F70" t="n">
-        <v>5.58025097257276</v>
+        <v>5.955135972142743</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.536318273026785</v>
+        <v>-9.524391185137972</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.34871441260776</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.93166972529226</v>
+        <v>-10.92331683607924</v>
       </c>
       <c r="F71" t="n">
-        <v>5.339169308045216</v>
+        <v>5.669854693221533</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.517897402928476</v>
+        <v>-9.501453470559268</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.4518824093238</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.00869174291014</v>
+        <v>-10.98170850675334</v>
       </c>
       <c r="F72" t="n">
-        <v>5.495674696215209</v>
+        <v>5.868124527456632</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.729639216787712</v>
+        <v>-9.751045131933934</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.53107453448022</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.44522839656181</v>
+        <v>-11.41844154494764</v>
       </c>
       <c r="F73" t="n">
-        <v>5.583576417494558</v>
+        <v>5.968411567224254</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.541044594352648</v>
+        <v>-9.523186693276534</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.57697622795519</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.564080321759</v>
+        <v>-11.53975482307908</v>
       </c>
       <c r="F74" t="n">
-        <v>5.602560256615061</v>
+        <v>5.960582370124902</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.579706164644264</v>
+        <v>-9.579562149313006</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.59558160560865</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.06630105876761</v>
+        <v>-12.05758158507502</v>
       </c>
       <c r="F75" t="n">
-        <v>5.533851851301683</v>
+        <v>5.903552298946344</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.67516214466329</v>
+        <v>-9.714504514702677</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.57850196953238</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.05146747964794</v>
+        <v>-12.00008019099416</v>
       </c>
       <c r="F76" t="n">
-        <v>5.433093488631759</v>
+        <v>5.795540800502103</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.683528126179153</v>
+        <v>-9.741134258682747</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.52162243213567</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68622159832334</v>
+        <v>-12.66575832898173</v>
       </c>
       <c r="F77" t="n">
-        <v>5.433695734562478</v>
+        <v>5.778442252990809</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.464873576419485</v>
+        <v>-9.51156072835308</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.43068959117729</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37739044994374</v>
+        <v>-13.36102507139159</v>
       </c>
       <c r="F78" t="n">
-        <v>5.503975216216864</v>
+        <v>5.84641748934505</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.929149636438897</v>
+        <v>-8.930183928363393</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.29756417870195</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.71310327941129</v>
+        <v>-13.65874403801244</v>
       </c>
       <c r="F79" t="n">
-        <v>5.683549241993978</v>
+        <v>6.037617480045618</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.05174596024882</v>
+        <v>-9.103251079628169</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.12392918546236</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.29059166545698</v>
+        <v>-14.24661462021162</v>
       </c>
       <c r="F80" t="n">
-        <v>5.707063017897719</v>
+        <v>6.05424470465461</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.51184557566172</v>
+        <v>-8.541709118443697</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.915505549344731</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86657443667588</v>
+        <v>-14.8358337096035</v>
       </c>
       <c r="F81" t="n">
-        <v>5.754692815635917</v>
+        <v>6.128608984795615</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.389707482451257</v>
+        <v>-8.412488089395861</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.665267148989136</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.72214333507983</v>
+        <v>-15.68734399412653</v>
       </c>
       <c r="F82" t="n">
-        <v>5.749220233048076</v>
+        <v>6.127142646877341</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.278868046593205</v>
+        <v>-8.303769606598168</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.380504628396899</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.75944648922979</v>
+        <v>-16.72154427250299</v>
       </c>
       <c r="F83" t="n">
-        <v>5.911329126834328</v>
+        <v>6.300746582558628</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.111757893121412</v>
+        <v>-8.153587800700727</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.067178301595128</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.73974575680687</v>
+        <v>-17.67792390278824</v>
       </c>
       <c r="F84" t="n">
-        <v>5.829004726565555</v>
+        <v>6.234735191630646</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.756393517088442</v>
+        <v>-7.792698472868548</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.720108695617043</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.61708715483662</v>
+        <v>-18.53808819948964</v>
       </c>
       <c r="F85" t="n">
-        <v>6.097030350341371</v>
+        <v>6.478278209092434</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.571333816420644</v>
+        <v>-7.587096949042082</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.352225212173646</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.89253929767757</v>
+        <v>-19.81230966586347</v>
       </c>
       <c r="F86" t="n">
-        <v>5.970611074101664</v>
+        <v>6.351335240739058</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.543132996099566</v>
+        <v>-7.586586349231255</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.971544044670015</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.94857753719404</v>
+        <v>-20.86815152083732</v>
       </c>
       <c r="F87" t="n">
-        <v>6.019052594616051</v>
+        <v>6.416089770594235</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.08881699518883</v>
+        <v>-7.091841317145269</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.576779414656329</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.38376886700689</v>
+        <v>-22.26024298969521</v>
       </c>
       <c r="F88" t="n">
-        <v>6.303810181423593</v>
+        <v>6.706791262891921</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.145428112676454</v>
+        <v>-7.150154434002316</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.186589864468719</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.95879908347222</v>
+        <v>-23.87051768541046</v>
       </c>
       <c r="F89" t="n">
-        <v>6.152332237544822</v>
+        <v>6.555863195732503</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.826669815388949</v>
+        <v>-6.823436016587043</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.80835949077006</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.33417168160123</v>
+        <v>-25.18168563040365</v>
       </c>
       <c r="F90" t="n">
-        <v>6.400745591663732</v>
+        <v>6.822291558561628</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.195453801834689</v>
+        <v>-7.214110333384149</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.441948283799142</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.07112749961303</v>
+        <v>-26.92055292463034</v>
       </c>
       <c r="F91" t="n">
-        <v>6.524232192066893</v>
+        <v>6.942112314169106</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.754491949822513</v>
+        <v>-6.753287457961075</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.102652591474364</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.05517434915672</v>
+        <v>-28.90894641871748</v>
       </c>
       <c r="F92" t="n">
-        <v>6.299018398583521</v>
+        <v>6.68888099260444</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.005288103058618</v>
+        <v>-7.008587363374732</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.791576665043185</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.90866475476272</v>
+        <v>-30.77305468192812</v>
       </c>
       <c r="F93" t="n">
-        <v>6.281003389873305</v>
+        <v>6.69699822036631</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.409339570006089</v>
+        <v>-6.343825686586092</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.504392342370842</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.92947479068598</v>
+        <v>-32.77941081551412</v>
       </c>
       <c r="F94" t="n">
-        <v>6.288099418013521</v>
+        <v>6.674348536450124</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.699242431830429</v>
+        <v>-6.663958675671977</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.247582360337685</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.20398747107621</v>
+        <v>-35.08513554587902</v>
       </c>
       <c r="F95" t="n">
-        <v>6.208969539638129</v>
+        <v>6.617135173031781</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.183536622894839</v>
+        <v>-6.088839996440635</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.010624939175657</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.60055969085985</v>
+        <v>-37.50114983538262</v>
       </c>
       <c r="F96" t="n">
-        <v>6.014784503889648</v>
+        <v>6.403468790654811</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.151054619544517</v>
+        <v>-6.041118552582543</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.785387480460151</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.6261353250175</v>
+        <v>-39.50597416953614</v>
       </c>
       <c r="F97" t="n">
-        <v>5.916304201914184</v>
+        <v>6.317583284013089</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.755850365964174</v>
+        <v>-5.637430486760762</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.562872902705556</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.05081671900233</v>
+        <v>-41.92698971872528</v>
       </c>
       <c r="F98" t="n">
-        <v>5.822432390539008</v>
+        <v>6.235704022040934</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.936602698997044</v>
+        <v>-5.825291940236689</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.336752366801775</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.33898467125647</v>
+        <v>-44.24146010738846</v>
       </c>
       <c r="F99" t="n">
-        <v>5.67802429019477</v>
+        <v>6.077575188318566</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.681813393394213</v>
+        <v>-5.562267576146412</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.084758226112062</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.48430250720455</v>
+        <v>-46.37448427096815</v>
       </c>
       <c r="F100" t="n">
-        <v>5.417147063770536</v>
+        <v>5.811513409969009</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.748557953281332</v>
+        <v>-5.632272119441121</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.823794992914623</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.92699890989959</v>
+        <v>-48.8178745657138</v>
       </c>
       <c r="F101" t="n">
-        <v>5.344013460096654</v>
+        <v>5.762443458918219</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.811152253167625</v>
+        <v>-5.671823966325976</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.512938048846154</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.31173568791431</v>
+        <v>-51.23860208424043</v>
       </c>
       <c r="F102" t="n">
-        <v>4.740196453036249</v>
+        <v>5.097642505221053</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.502016798468789</v>
+        <v>-5.355186622098831</v>
       </c>
     </row>
   </sheetData>
